--- a/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,6 +1209,66 @@
         <v>83700</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B39" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C39" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D39" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>48500</v>
+      </c>
+      <c r="F39" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31500</v>
+      </c>
+      <c r="D40" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31500</v>
+      </c>
+      <c r="F40" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,6 +1269,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B42" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D42" t="n">
+        <v>119500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>70500</v>
+      </c>
+      <c r="F42" t="n">
+        <v>119500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,6 +1289,66 @@
         <v>119500</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B43" t="n">
+        <v>73200</v>
+      </c>
+      <c r="C43" t="n">
+        <v>121000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>122000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>121000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B44" t="n">
+        <v>61600</v>
+      </c>
+      <c r="C44" t="n">
+        <v>123500</v>
+      </c>
+      <c r="D44" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>123500</v>
+      </c>
+      <c r="F44" t="n">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B45" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C45" t="n">
+        <v>91000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>54500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>M3601</t>
+          <t>M1601</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,17 +455,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>M2601</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MA2605</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>M1601</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>M2601</t>
+          <t>M3601</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
         <v>44621</v>
       </c>
       <c r="B2" t="n">
-        <v>16000</v>
+        <v>91500</v>
       </c>
       <c r="C2" t="n">
         <v>91500</v>
@@ -483,10 +483,10 @@
         <v>102500</v>
       </c>
       <c r="E2" t="n">
-        <v>91500</v>
+        <v>102500</v>
       </c>
       <c r="F2" t="n">
-        <v>102500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>44622</v>
       </c>
       <c r="B3" t="n">
-        <v>59200</v>
+        <v>111500</v>
       </c>
       <c r="C3" t="n">
         <v>111500</v>
@@ -503,10 +503,10 @@
         <v>114000</v>
       </c>
       <c r="E3" t="n">
-        <v>111500</v>
+        <v>114000</v>
       </c>
       <c r="F3" t="n">
-        <v>114000</v>
+        <v>59200</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>44623</v>
       </c>
       <c r="B4" t="n">
-        <v>43800</v>
+        <v>117500</v>
       </c>
       <c r="C4" t="n">
         <v>117500</v>
@@ -523,10 +523,10 @@
         <v>118000</v>
       </c>
       <c r="E4" t="n">
-        <v>117500</v>
+        <v>118000</v>
       </c>
       <c r="F4" t="n">
-        <v>118000</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +534,7 @@
         <v>44624</v>
       </c>
       <c r="B5" t="n">
-        <v>48200</v>
+        <v>63000</v>
       </c>
       <c r="C5" t="n">
         <v>63000</v>
@@ -543,10 +543,10 @@
         <v>91000</v>
       </c>
       <c r="E5" t="n">
-        <v>63000</v>
+        <v>91000</v>
       </c>
       <c r="F5" t="n">
-        <v>91000</v>
+        <v>48200</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>44625</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>54000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -574,19 +574,19 @@
         <v>44626</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>45200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -594,7 +594,7 @@
         <v>44627</v>
       </c>
       <c r="B8" t="n">
-        <v>79600</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>62500</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="F8" t="n">
-        <v>62500</v>
+        <v>79600</v>
       </c>
     </row>
     <row r="9">
@@ -614,7 +614,7 @@
         <v>44628</v>
       </c>
       <c r="B9" t="n">
-        <v>90600</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>112000</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="F9" t="n">
-        <v>112000</v>
+        <v>90600</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +634,7 @@
         <v>44629</v>
       </c>
       <c r="B10" t="n">
-        <v>67800</v>
+        <v>65000</v>
       </c>
       <c r="C10" t="n">
         <v>65000</v>
@@ -643,10 +643,10 @@
         <v>118000</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>118000</v>
       </c>
       <c r="F10" t="n">
-        <v>118000</v>
+        <v>67800</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>44630</v>
       </c>
       <c r="B11" t="n">
-        <v>45000</v>
+        <v>108500</v>
       </c>
       <c r="C11" t="n">
         <v>108500</v>
@@ -663,10 +663,10 @@
         <v>118500</v>
       </c>
       <c r="E11" t="n">
-        <v>108500</v>
+        <v>118500</v>
       </c>
       <c r="F11" t="n">
-        <v>118500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="12">
@@ -674,7 +674,7 @@
         <v>44631</v>
       </c>
       <c r="B12" t="n">
-        <v>93400</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>121500</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>121500</v>
       </c>
       <c r="F12" t="n">
-        <v>121500</v>
+        <v>93400</v>
       </c>
     </row>
     <row r="13">
@@ -714,7 +714,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>41800</v>
+        <v>26600</v>
       </c>
       <c r="C14" t="n">
         <v>37500</v>
@@ -723,10 +723,10 @@
         <v>64000</v>
       </c>
       <c r="E14" t="n">
-        <v>26600</v>
+        <v>64000</v>
       </c>
       <c r="F14" t="n">
-        <v>64000</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="15">
@@ -734,7 +734,7 @@
         <v>44635</v>
       </c>
       <c r="B15" t="n">
-        <v>44200</v>
+        <v>128500</v>
       </c>
       <c r="C15" t="n">
         <v>128500</v>
@@ -743,10 +743,10 @@
         <v>133000</v>
       </c>
       <c r="E15" t="n">
-        <v>128500</v>
+        <v>133000</v>
       </c>
       <c r="F15" t="n">
-        <v>133000</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +754,7 @@
         <v>44636</v>
       </c>
       <c r="B16" t="n">
-        <v>67600</v>
+        <v>125000</v>
       </c>
       <c r="C16" t="n">
         <v>125000</v>
@@ -763,10 +763,10 @@
         <v>135500</v>
       </c>
       <c r="E16" t="n">
-        <v>125000</v>
+        <v>135500</v>
       </c>
       <c r="F16" t="n">
-        <v>135500</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="17">
@@ -774,7 +774,7 @@
         <v>44637</v>
       </c>
       <c r="B17" t="n">
-        <v>88800</v>
+        <v>134000</v>
       </c>
       <c r="C17" t="n">
         <v>134000</v>
@@ -786,7 +786,7 @@
         <v>134000</v>
       </c>
       <c r="F17" t="n">
-        <v>134000</v>
+        <v>88800</v>
       </c>
     </row>
     <row r="18">
@@ -794,7 +794,7 @@
         <v>44638</v>
       </c>
       <c r="B18" t="n">
-        <v>67800</v>
+        <v>118500</v>
       </c>
       <c r="C18" t="n">
         <v>118500</v>
@@ -803,10 +803,10 @@
         <v>120000</v>
       </c>
       <c r="E18" t="n">
-        <v>118500</v>
+        <v>120000</v>
       </c>
       <c r="F18" t="n">
-        <v>120000</v>
+        <v>67800</v>
       </c>
     </row>
     <row r="19">
@@ -814,7 +814,7 @@
         <v>44639</v>
       </c>
       <c r="B19" t="n">
-        <v>100880</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>44000</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F19" t="n">
-        <v>44000</v>
+        <v>100880</v>
       </c>
     </row>
     <row r="20">
@@ -854,7 +854,7 @@
         <v>44641</v>
       </c>
       <c r="B21" t="n">
-        <v>75160</v>
+        <v>21360</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -863,10 +863,10 @@
         <v>23500</v>
       </c>
       <c r="E21" t="n">
-        <v>21360</v>
+        <v>23500</v>
       </c>
       <c r="F21" t="n">
-        <v>23500</v>
+        <v>75160</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>44642</v>
       </c>
       <c r="B22" t="n">
+        <v>66840</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>94600</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>66840</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>44643</v>
       </c>
       <c r="B23" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>128000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>57200</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -914,7 +914,7 @@
         <v>44644</v>
       </c>
       <c r="B24" t="n">
-        <v>91000</v>
+        <v>35600</v>
       </c>
       <c r="C24" t="n">
         <v>36500</v>
@@ -923,10 +923,10 @@
         <v>63000</v>
       </c>
       <c r="E24" t="n">
-        <v>35600</v>
+        <v>63000</v>
       </c>
       <c r="F24" t="n">
-        <v>63000</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="25">
@@ -934,7 +934,7 @@
         <v>44645</v>
       </c>
       <c r="B25" t="n">
-        <v>71400</v>
+        <v>107500</v>
       </c>
       <c r="C25" t="n">
         <v>107500</v>
@@ -943,10 +943,10 @@
         <v>125000</v>
       </c>
       <c r="E25" t="n">
-        <v>107500</v>
+        <v>125000</v>
       </c>
       <c r="F25" t="n">
-        <v>125000</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="26">
@@ -954,7 +954,7 @@
         <v>44646</v>
       </c>
       <c r="B26" t="n">
-        <v>101600</v>
+        <v>20000</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>39000</v>
       </c>
       <c r="E26" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="F26" t="n">
-        <v>39000</v>
+        <v>101600</v>
       </c>
     </row>
     <row r="27">
@@ -994,7 +994,7 @@
         <v>44648</v>
       </c>
       <c r="B28" t="n">
-        <v>62000</v>
+        <v>8600</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>119500</v>
       </c>
       <c r="E28" t="n">
-        <v>8600</v>
+        <v>119500</v>
       </c>
       <c r="F28" t="n">
-        <v>119500</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="29">
@@ -1014,7 +1014,7 @@
         <v>44649</v>
       </c>
       <c r="B29" t="n">
-        <v>82800</v>
+        <v>47000</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>26500</v>
       </c>
       <c r="E29" t="n">
-        <v>47000</v>
+        <v>26500</v>
       </c>
       <c r="F29" t="n">
-        <v>26500</v>
+        <v>82800</v>
       </c>
     </row>
     <row r="30">
@@ -1034,7 +1034,7 @@
         <v>44650</v>
       </c>
       <c r="B30" t="n">
-        <v>88400</v>
+        <v>37400</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>121000</v>
       </c>
       <c r="E30" t="n">
-        <v>37400</v>
+        <v>121000</v>
       </c>
       <c r="F30" t="n">
-        <v>121000</v>
+        <v>88400</v>
       </c>
     </row>
     <row r="31">
@@ -1054,7 +1054,7 @@
         <v>44651</v>
       </c>
       <c r="B31" t="n">
-        <v>65000</v>
+        <v>115000</v>
       </c>
       <c r="C31" t="n">
         <v>115000</v>
@@ -1063,10 +1063,10 @@
         <v>121000</v>
       </c>
       <c r="E31" t="n">
-        <v>115000</v>
+        <v>121000</v>
       </c>
       <c r="F31" t="n">
-        <v>121000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="32">
@@ -1074,7 +1074,7 @@
         <v>44652</v>
       </c>
       <c r="B32" t="n">
-        <v>44200</v>
+        <v>82500</v>
       </c>
       <c r="C32" t="n">
         <v>82500</v>
@@ -1083,10 +1083,10 @@
         <v>107000</v>
       </c>
       <c r="E32" t="n">
-        <v>82500</v>
+        <v>107000</v>
       </c>
       <c r="F32" t="n">
-        <v>107000</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="33">
@@ -1094,7 +1094,7 @@
         <v>44653</v>
       </c>
       <c r="B33" t="n">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>44000</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F33" t="n">
-        <v>44000</v>
+        <v>125600</v>
       </c>
     </row>
     <row r="34">
@@ -1114,19 +1114,19 @@
         <v>44654</v>
       </c>
       <c r="B34" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D34" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>58200</v>
+      </c>
+      <c r="F34" t="n">
         <v>78800</v>
-      </c>
-      <c r="C34" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D34" t="n">
-        <v>39000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>58200</v>
       </c>
     </row>
     <row r="35">
@@ -1134,19 +1134,19 @@
         <v>44655</v>
       </c>
       <c r="B35" t="n">
+        <v>43600</v>
+      </c>
+      <c r="C35" t="n">
+        <v>43600</v>
+      </c>
+      <c r="D35" t="n">
+        <v>87400</v>
+      </c>
+      <c r="E35" t="n">
+        <v>87400</v>
+      </c>
+      <c r="F35" t="n">
         <v>11690</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>43600</v>
-      </c>
-      <c r="F35" t="n">
-        <v>87400</v>
       </c>
     </row>
     <row r="36">
@@ -1154,19 +1154,19 @@
         <v>44656</v>
       </c>
       <c r="B36" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C36" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>65200</v>
+      </c>
+      <c r="F36" t="n">
         <v>43520</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>68300</v>
-      </c>
-      <c r="F36" t="n">
-        <v>65200</v>
       </c>
     </row>
     <row r="37">
@@ -1174,19 +1174,19 @@
         <v>44657</v>
       </c>
       <c r="B37" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25800</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25800</v>
+      </c>
+      <c r="F37" t="n">
         <v>52320</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>25800</v>
       </c>
     </row>
     <row r="38">
@@ -1194,19 +1194,19 @@
         <v>44658</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>83700</v>
+      </c>
+      <c r="E38" t="n">
+        <v>83700</v>
+      </c>
+      <c r="F38" t="n">
         <v>79400</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>83700</v>
       </c>
     </row>
     <row r="39">
@@ -1214,19 +1214,19 @@
         <v>44659</v>
       </c>
       <c r="B39" t="n">
+        <v>48500</v>
+      </c>
+      <c r="C39" t="n">
+        <v>48500</v>
+      </c>
+      <c r="D39" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F39" t="n">
         <v>75200</v>
-      </c>
-      <c r="C39" t="n">
-        <v>45500</v>
-      </c>
-      <c r="D39" t="n">
-        <v>36000</v>
-      </c>
-      <c r="E39" t="n">
-        <v>48500</v>
-      </c>
-      <c r="F39" t="n">
-        <v>75000</v>
       </c>
     </row>
     <row r="40">
@@ -1234,7 +1234,7 @@
         <v>44660</v>
       </c>
       <c r="B40" t="n">
-        <v>89000</v>
+        <v>31500</v>
       </c>
       <c r="C40" t="n">
         <v>31500</v>
@@ -1243,10 +1243,10 @@
         <v>36000</v>
       </c>
       <c r="E40" t="n">
-        <v>31500</v>
+        <v>36000</v>
       </c>
       <c r="F40" t="n">
-        <v>36000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="41">
@@ -1274,7 +1274,7 @@
         <v>44662</v>
       </c>
       <c r="B42" t="n">
-        <v>77000</v>
+        <v>70500</v>
       </c>
       <c r="C42" t="n">
         <v>70500</v>
@@ -1283,10 +1283,10 @@
         <v>119500</v>
       </c>
       <c r="E42" t="n">
-        <v>70500</v>
+        <v>119500</v>
       </c>
       <c r="F42" t="n">
-        <v>119500</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="43">
@@ -1294,7 +1294,7 @@
         <v>44663</v>
       </c>
       <c r="B43" t="n">
-        <v>73200</v>
+        <v>121000</v>
       </c>
       <c r="C43" t="n">
         <v>121000</v>
@@ -1303,10 +1303,10 @@
         <v>122000</v>
       </c>
       <c r="E43" t="n">
-        <v>121000</v>
+        <v>122000</v>
       </c>
       <c r="F43" t="n">
-        <v>122000</v>
+        <v>73200</v>
       </c>
     </row>
     <row r="44">
@@ -1314,7 +1314,7 @@
         <v>44664</v>
       </c>
       <c r="B44" t="n">
-        <v>61600</v>
+        <v>123500</v>
       </c>
       <c r="C44" t="n">
         <v>123500</v>
@@ -1323,10 +1323,10 @@
         <v>123000</v>
       </c>
       <c r="E44" t="n">
-        <v>123500</v>
+        <v>123000</v>
       </c>
       <c r="F44" t="n">
-        <v>123000</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="45">
@@ -1334,7 +1334,7 @@
         <v>44665</v>
       </c>
       <c r="B45" t="n">
-        <v>62800</v>
+        <v>91000</v>
       </c>
       <c r="C45" t="n">
         <v>91000</v>
@@ -1343,10 +1343,90 @@
         <v>54500</v>
       </c>
       <c r="E45" t="n">
-        <v>91000</v>
+        <v>54500</v>
       </c>
       <c r="F45" t="n">
-        <v>54500</v>
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B46" t="n">
+        <v>121500</v>
+      </c>
+      <c r="C46" t="n">
+        <v>121500</v>
+      </c>
+      <c r="D46" t="n">
+        <v>121500</v>
+      </c>
+      <c r="E46" t="n">
+        <v>121500</v>
+      </c>
+      <c r="F46" t="n">
+        <v>70200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88600</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>108640</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B49" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>114500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>114500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>62400</v>
       </c>
     </row>
   </sheetData>

--- a/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/ym_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,6 +1429,86 @@
         <v>62400</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B50" t="n">
+        <v>102100</v>
+      </c>
+      <c r="C50" t="n">
+        <v>102100</v>
+      </c>
+      <c r="D50" t="n">
+        <v>92700</v>
+      </c>
+      <c r="E50" t="n">
+        <v>92700</v>
+      </c>
+      <c r="F50" t="n">
+        <v>92720</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B51" t="n">
+        <v>66400</v>
+      </c>
+      <c r="C51" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D51" t="n">
+        <v>89100</v>
+      </c>
+      <c r="E51" t="n">
+        <v>89100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24200</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24200</v>
+      </c>
+      <c r="D52" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E52" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F52" t="n">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B53" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>99300</v>
+      </c>
+      <c r="E53" t="n">
+        <v>99300</v>
+      </c>
+      <c r="F53" t="n">
+        <v>73240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
